--- a/data/CruiseInfoTable2023.xlsx
+++ b/data/CruiseInfoTable2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\temp\ctdeep_quickfacts\LIS_Hypoxia_Report2.2.24\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921B8272-409B-49F3-9AE5-014728552E55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5FD0C7-5E71-4916-BE14-5AA23117F1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="4">
-        <v>136.72</v>
+        <v>121.51</v>
       </c>
       <c r="G15" s="4">
         <v>1.94</v>
@@ -1313,6 +1313,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1862A7241CD5C4BB9A49AEC91EB145E" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="886e3144d6cee8faf22c18b9e81acb9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="26e7f4b6-3714-4cf5-b0ae-a47b16f23eba" xmlns:ns4="c867d1a5-5827-4927-b797-91c0fe867b8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c61be2c3ea34d5299ef19bcff063b94d" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1550,15 +1559,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB6D1C6B-FB84-4815-8B95-A837F1662AF0}">
   <ds:schemaRefs>
@@ -1578,6 +1578,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07190D35-2B79-4947-B2FC-84D221FCAD95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96AA63C6-33C3-4EB8-B4D2-A24079D6B709}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1595,12 +1603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07190D35-2B79-4947-B2FC-84D221FCAD95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>